--- a/9_AridityDroughtResearch/6_TransboundaryBasinMetLandMeteorologicalChange/Basins_TWAP.xlsx
+++ b/9_AridityDroughtResearch/6_TransboundaryBasinMetLandMeteorologicalChange/Basins_TWAP.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\CMIP6\Program\9_AridityDroughtResearch\6_TransboundaryBasinMetLandMeteorologicalChange\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{38B293CA-3AC2-4042-A906-8528777CB7E4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5A528AED-2A33-4FDB-B70B-B8E18D9EE80B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="780" yWindow="780" windowWidth="21600" windowHeight="13185" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3900" yWindow="3900" windowWidth="21600" windowHeight="13185" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -2249,10 +2249,10 @@
   <dimension ref="A1:AI288"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="2" topLeftCell="V3" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="2" topLeftCell="M3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="AE3" sqref="AE3:AE288"/>
+      <selection pane="bottomRight" activeCell="U3" sqref="U3:U288"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
